--- a/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>4469</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1707</v>
+        <v>1744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9962</v>
+        <v>10815</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02333923849093955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00891377391934541</v>
+        <v>0.009106196217510465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0520240485148399</v>
+        <v>0.0564791459928958</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>6538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2386</v>
+        <v>2193</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13280</v>
+        <v>14217</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03249296432411782</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01185791813872096</v>
+        <v>0.01089708885583561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06599618273796688</v>
+        <v>0.07065303306364615</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -785,19 +785,19 @@
         <v>11008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5461</v>
+        <v>5522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19397</v>
+        <v>19133</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02802948780260405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01390654646234057</v>
+        <v>0.01406213324305678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0493924557125958</v>
+        <v>0.0487200877171717</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>187024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>181531</v>
+        <v>180678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189786</v>
+        <v>189749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9766607615090604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9479759514851606</v>
+        <v>0.9435208540071042</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9910862260806547</v>
+        <v>0.9908938037824896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>185</v>
@@ -835,19 +835,19 @@
         <v>194684</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>187942</v>
+        <v>187005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>198836</v>
+        <v>199029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9675070356758821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.934003817262033</v>
+        <v>0.9293469669363537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9881420818612789</v>
+        <v>0.9891029111441643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>371</v>
@@ -856,19 +856,19 @@
         <v>381708</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>373319</v>
+        <v>373583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>387255</v>
+        <v>387194</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9719705121973959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9506075442874039</v>
+        <v>0.9512799122828287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9860934535376593</v>
+        <v>0.9859378667569433</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>13586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7407</v>
+        <v>7194</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24370</v>
+        <v>22811</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03324176400168209</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01812378116788675</v>
+        <v>0.01760117053818848</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05962488213978332</v>
+        <v>0.05581192172221727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -981,19 +981,19 @@
         <v>14937</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8964</v>
+        <v>8829</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24146</v>
+        <v>24645</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03385428074736641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02031682018461243</v>
+        <v>0.02001095851624292</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05472793319163598</v>
+        <v>0.05585793435660814</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1002,19 +1002,19 @@
         <v>28523</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18538</v>
+        <v>19348</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39927</v>
+        <v>42294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03355972825477167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02181110293189487</v>
+        <v>0.02276442502851925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04697756412880884</v>
+        <v>0.04976282305712172</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>395130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>384346</v>
+        <v>385905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>401309</v>
+        <v>401522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9667582359983179</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9403751178602167</v>
+        <v>0.9441880782777827</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818762188321133</v>
+        <v>0.9823988294618115</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>423</v>
@@ -1052,19 +1052,19 @@
         <v>426264</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>417055</v>
+        <v>416556</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>432237</v>
+        <v>432372</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9661457192526336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9452720668083631</v>
+        <v>0.9441420656433919</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9796831798153874</v>
+        <v>0.9799890414837571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>794</v>
@@ -1073,19 +1073,19 @@
         <v>821394</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>809990</v>
+        <v>807623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>831379</v>
+        <v>830569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9664402717452283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9530224358711912</v>
+        <v>0.9502371769428783</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9781888970681054</v>
+        <v>0.9772355749714808</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>4596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1788</v>
+        <v>1774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10273</v>
+        <v>10802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0194322288463873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00756004353871675</v>
+        <v>0.007498419713624748</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04343031479771994</v>
+        <v>0.0456669505686882</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1198,19 +1198,19 @@
         <v>11051</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5220</v>
+        <v>5963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18886</v>
+        <v>18853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03826560072738934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0180742089222388</v>
+        <v>0.02064621940551977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06539506572487806</v>
+        <v>0.06527992686830197</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1219,19 +1219,19 @@
         <v>15648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8786</v>
+        <v>9619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24359</v>
+        <v>24955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02978582950208027</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01672453668979614</v>
+        <v>0.01830948926720902</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04636714809204219</v>
+        <v>0.04750217139287231</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>231941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>226264</v>
+        <v>225735</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>234749</v>
+        <v>234763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9805677711536127</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9565696852022804</v>
+        <v>0.9543330494313119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9924399564612832</v>
+        <v>0.9925015802863753</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>277</v>
@@ -1269,19 +1269,19 @@
         <v>277755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269920</v>
+        <v>269953</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>283586</v>
+        <v>282843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9617343992726106</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9346049342751219</v>
+        <v>0.934720073131698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9819257910777612</v>
+        <v>0.9793537805944803</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>503</v>
@@ -1290,19 +1290,19 @@
         <v>509695</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>500984</v>
+        <v>500388</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>516557</v>
+        <v>515724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9702141704979197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9536328519079573</v>
+        <v>0.9524978286071277</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9832754633102039</v>
+        <v>0.981690510732791</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>9466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4318</v>
+        <v>4661</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18973</v>
+        <v>19675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03538214613467083</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01614028281564358</v>
+        <v>0.01742277617564627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07092001356476364</v>
+        <v>0.07354170594783337</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1415,19 +1415,19 @@
         <v>9615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4710</v>
+        <v>4525</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17577</v>
+        <v>15961</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03210115659877667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01572512823306648</v>
+        <v>0.01510655874726608</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05868027379404447</v>
+        <v>0.05328614180680848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1436,19 +1436,19 @@
         <v>19081</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12133</v>
+        <v>12082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30484</v>
+        <v>28783</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03364906800480939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02139576707421591</v>
+        <v>0.02130644476723546</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05375755821846104</v>
+        <v>0.0507579712140326</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>258065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248558</v>
+        <v>247856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263213</v>
+        <v>262870</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9646178538653292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9290799864352363</v>
+        <v>0.9264582940521665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9838597171843564</v>
+        <v>0.9825772238243535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -1486,19 +1486,19 @@
         <v>289919</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>281957</v>
+        <v>283573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294824</v>
+        <v>295009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9678988434012233</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9413197262059555</v>
+        <v>0.9467138581931914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9842748717669334</v>
+        <v>0.9848934412527339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>558</v>
@@ -1507,19 +1507,19 @@
         <v>547984</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>536581</v>
+        <v>538282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>554932</v>
+        <v>554983</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9663509319951906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9462424417815392</v>
+        <v>0.9492420287859676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9786042329257841</v>
+        <v>0.9786935552327647</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>5952</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2524</v>
+        <v>2412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12633</v>
+        <v>12555</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03495255528986424</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01482169066184697</v>
+        <v>0.01416616507207343</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0741908056943015</v>
+        <v>0.0737352247914915</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1632,19 +1632,19 @@
         <v>4848</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1835</v>
+        <v>1851</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9949</v>
+        <v>10632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02787672677513061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0105508466227996</v>
+        <v>0.01064213200984237</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05720909645189134</v>
+        <v>0.06113732910425997</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1653,19 +1653,19 @@
         <v>10800</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5562</v>
+        <v>5497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18273</v>
+        <v>18210</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03137735000058232</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01615878628448022</v>
+        <v>0.01597151863231921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05309056769927403</v>
+        <v>0.05290762587574092</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>164326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157645</v>
+        <v>157723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167754</v>
+        <v>167866</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9650474447101358</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9258091943056989</v>
+        <v>0.9262647752085102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9851783093381531</v>
+        <v>0.9858338349279268</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -1703,19 +1703,19 @@
         <v>169058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>163957</v>
+        <v>163274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>172071</v>
+        <v>172055</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9721232732248694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9427909035481076</v>
+        <v>0.9388626708957408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9894491533772004</v>
+        <v>0.9893578679901577</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>326</v>
@@ -1724,19 +1724,19 @@
         <v>333384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>325911</v>
+        <v>325974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>338622</v>
+        <v>338687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9686226499994177</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9469094323007261</v>
+        <v>0.9470923741242591</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9838412137155198</v>
+        <v>0.9840284813676808</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>4106</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10321</v>
+        <v>9404</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02169465276846496</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005439043631501902</v>
+        <v>0.00542458705298743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05453171046694354</v>
+        <v>0.04968314461897128</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1849,19 +1849,19 @@
         <v>5319</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2070</v>
+        <v>2001</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12817</v>
+        <v>12173</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02601188010249951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01012160360076801</v>
+        <v>0.009787602696014202</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06268051815858441</v>
+        <v>0.05952812653152995</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1870,19 +1870,19 @@
         <v>9425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5007</v>
+        <v>4270</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17414</v>
+        <v>17691</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02393669261542963</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01271490869735293</v>
+        <v>0.01084407886017937</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04422520663049394</v>
+        <v>0.04492929048091474</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>185164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178949</v>
+        <v>179866</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188241</v>
+        <v>188243</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9783053472315351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9454682895330564</v>
+        <v>0.9503168553810277</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9945609563684981</v>
+        <v>0.9945754129470126</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -1920,19 +1920,19 @@
         <v>199169</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191671</v>
+        <v>192315</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>202418</v>
+        <v>202487</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9739881198975004</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9373194818414156</v>
+        <v>0.9404718734684707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9898783963992319</v>
+        <v>0.9902123973039859</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>376</v>
@@ -1941,19 +1941,19 @@
         <v>384333</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>376344</v>
+        <v>376067</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>388751</v>
+        <v>389488</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9760633073845704</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9557747933695061</v>
+        <v>0.9550707095190853</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9872850913026471</v>
+        <v>0.9891559211398206</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>10804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5478</v>
+        <v>5388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20337</v>
+        <v>18319</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02326918065570891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01179800808149853</v>
+        <v>0.01160314157291787</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04379973577288433</v>
+        <v>0.03945265157897022</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2066,19 +2066,19 @@
         <v>23633</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15516</v>
+        <v>15533</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34766</v>
+        <v>35177</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04381546754532401</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02876684979740779</v>
+        <v>0.02879778938144142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0644561689572745</v>
+        <v>0.0652188337045678</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2087,19 +2087,19 @@
         <v>34437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23619</v>
+        <v>24123</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47478</v>
+        <v>48670</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03431041521850191</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02353179100444657</v>
+        <v>0.02403383733981494</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04730326596686605</v>
+        <v>0.04849112256346093</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>453521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>443988</v>
+        <v>446006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>458847</v>
+        <v>458937</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9767308193442911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9562002642271157</v>
+        <v>0.9605473484210297</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9882019919185014</v>
+        <v>0.9883968584270821</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>502</v>
@@ -2137,19 +2137,19 @@
         <v>515735</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>504602</v>
+        <v>504191</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>523852</v>
+        <v>523835</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9561845324546759</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9355438310427254</v>
+        <v>0.9347811662954321</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9712331502025923</v>
+        <v>0.9712022106185586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>945</v>
@@ -2158,19 +2158,19 @@
         <v>969255</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>956214</v>
+        <v>955022</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>980073</v>
+        <v>979569</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9656895847814981</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.952696734033134</v>
+        <v>0.9515088774365387</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9764682089955534</v>
+        <v>0.975966162660185</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>11309</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5579</v>
+        <v>5948</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18450</v>
+        <v>18760</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02165147248865319</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01067994038991929</v>
+        <v>0.01138670393166671</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03532118979054041</v>
+        <v>0.03591545811089017</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2283,19 +2283,19 @@
         <v>10092</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5278</v>
+        <v>4398</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19558</v>
+        <v>18853</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01714261472422085</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008965502251497406</v>
+        <v>0.007469721059000962</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03322078193391628</v>
+        <v>0.03202348613217519</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -2304,19 +2304,19 @@
         <v>21402</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13300</v>
+        <v>12948</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31263</v>
+        <v>31914</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01926233731878509</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0119702726881532</v>
+        <v>0.01165392686840676</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02813779538760307</v>
+        <v>0.02872320410210148</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>511032</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>503891</v>
+        <v>503581</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>516762</v>
+        <v>516393</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9783485275113468</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.96467881020946</v>
+        <v>0.9640845418891097</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9893200596100807</v>
+        <v>0.9886132960683333</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>553</v>
@@ -2354,19 +2354,19 @@
         <v>578638</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>569172</v>
+        <v>569877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>583452</v>
+        <v>584332</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9828573852757791</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9667792180660837</v>
+        <v>0.9679765138678244</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9910344977485026</v>
+        <v>0.9925302789409988</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1060</v>
@@ -2375,19 +2375,19 @@
         <v>1089669</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1079808</v>
+        <v>1079157</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1097771</v>
+        <v>1098123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9807376626812149</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9718622046123969</v>
+        <v>0.9712767958978983</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9880297273118468</v>
+        <v>0.988346073131593</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>64290</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02623544144549551</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>83</v>
@@ -2500,19 +2500,19 @@
         <v>86034</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03143063071377918</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>146</v>
@@ -2521,19 +2521,19 @@
         <v>150323</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02897662393162866</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>2386201</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2369595</v>
+        <v>2368556</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2400685</v>
+        <v>2401854</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9737645585545045</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9669876584853748</v>
+        <v>0.9665638940265072</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9796752711911082</v>
+        <v>0.9801520555349228</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2593</v>
@@ -2571,19 +2571,19 @@
         <v>2651221</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2629985</v>
+        <v>2631889</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2666955</v>
+        <v>2668132</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9685693692862208</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9608110725601201</v>
+        <v>0.9615066011542729</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.974317277980683</v>
+        <v>0.9747474278555942</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4933</v>
@@ -2592,19 +2592,19 @@
         <v>5037422</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5009766</v>
+        <v>5011546</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5058870</v>
+        <v>5059963</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9710233760683713</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9656925051070953</v>
+        <v>0.9660355061564316</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9751578595644196</v>
+        <v>0.9753684265521786</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>4029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11988</v>
+        <v>11887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01613221245766405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003742336186657071</v>
+        <v>0.003765254830699997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04799977866027122</v>
+        <v>0.04759448698647488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2961,19 +2961,19 @@
         <v>19235</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11841</v>
+        <v>11364</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29757</v>
+        <v>30077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07717353140254145</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04750819979937256</v>
+        <v>0.04559473284093761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1193896150557509</v>
+        <v>0.1206747867750941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2982,19 +2982,19 @@
         <v>23264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15487</v>
+        <v>14442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36344</v>
+        <v>35246</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04662190594648966</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03103601609781965</v>
+        <v>0.02894264525086296</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07283650761078596</v>
+        <v>0.07063598449656626</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>245717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237758</v>
+        <v>237859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248811</v>
+        <v>248806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9838677875423359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9520002213397291</v>
+        <v>0.9524055130135263</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9962576638133429</v>
+        <v>0.9962347451693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -3032,19 +3032,19 @@
         <v>230004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219482</v>
+        <v>219162</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>237398</v>
+        <v>237875</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9228264685974585</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8806103849442487</v>
+        <v>0.8793252132249058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9524918002006268</v>
+        <v>0.9544052671590624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>443</v>
@@ -3053,19 +3053,19 @@
         <v>475721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>462641</v>
+        <v>463739</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483498</v>
+        <v>484543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9533780940535104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.927163492389214</v>
+        <v>0.9293640155034337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9689639839021803</v>
+        <v>0.971057354749137</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>4992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1919</v>
+        <v>1908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11032</v>
+        <v>10507</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01263838669104188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004858783040066798</v>
+        <v>0.004829902561734901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02793245663414226</v>
+        <v>0.02660360620171369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3178,19 +3178,19 @@
         <v>9229</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4062</v>
+        <v>4058</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18323</v>
+        <v>18572</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02240098088019067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009860302898463038</v>
+        <v>0.009849900581069737</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04447336522354889</v>
+        <v>0.04507837998974396</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -3199,19 +3199,19 @@
         <v>14221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8037</v>
+        <v>8014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23228</v>
+        <v>22697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01762280659787221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009959222200092474</v>
+        <v>0.009930719079918025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02878553942411362</v>
+        <v>0.02812691624727899</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>389958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>383918</v>
+        <v>384443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>393031</v>
+        <v>393042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9873616133089581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9720675433658572</v>
+        <v>0.9733963937982865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9951412169599332</v>
+        <v>0.9951700974382651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -3249,19 +3249,19 @@
         <v>402769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>393675</v>
+        <v>393426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>407936</v>
+        <v>407940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9775990191198093</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9555266347764508</v>
+        <v>0.954921620010256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9901396971015368</v>
+        <v>0.9901500994189303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>740</v>
@@ -3270,19 +3270,19 @@
         <v>792727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>783720</v>
+        <v>784251</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>798911</v>
+        <v>798934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9823771934021278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9712144605758863</v>
+        <v>0.9718730837527213</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9900407777999075</v>
+        <v>0.9900692809200821</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>4025</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9074</v>
+        <v>9138</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0137498749765075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003414507815076235</v>
+        <v>0.003428885003771533</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03099902595864921</v>
+        <v>0.03121544080196399</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3395,19 +3395,19 @@
         <v>9617</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4322</v>
+        <v>4443</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17012</v>
+        <v>17634</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02925422206321585</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01314570617400934</v>
+        <v>0.01351597842202919</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05174849488730695</v>
+        <v>0.05363917979437952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3416,19 +3416,19 @@
         <v>13642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7251</v>
+        <v>7710</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22106</v>
+        <v>23384</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0219513910969226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01166657579425836</v>
+        <v>0.01240506164590218</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.035570103467603</v>
+        <v>0.03762544921252736</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>288704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283655</v>
+        <v>283591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291729</v>
+        <v>291725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9862501250234925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9690009740413511</v>
+        <v>0.9687845591980361</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965854921849238</v>
+        <v>0.9965711149962285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -3466,19 +3466,19 @@
         <v>319135</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311740</v>
+        <v>311118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>324430</v>
+        <v>324309</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9707457779367842</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9482515051126927</v>
+        <v>0.9463608202056205</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9868542938259905</v>
+        <v>0.986484021577971</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>580</v>
@@ -3487,19 +3487,19 @@
         <v>607839</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>599375</v>
+        <v>598097</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>614230</v>
+        <v>613771</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9780486089030774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9644298965323969</v>
+        <v>0.9623745507874726</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9883334242057416</v>
+        <v>0.9875949383540977</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>10092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4883</v>
+        <v>4820</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19472</v>
+        <v>18573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03286438181025058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01590320951279274</v>
+        <v>0.01569535008130115</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0634120954493036</v>
+        <v>0.06048473801671882</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3612,19 +3612,19 @@
         <v>13313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6640</v>
+        <v>7424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22878</v>
+        <v>23932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03907595278346735</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01948886205592778</v>
+        <v>0.02179137285600369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06715001914249343</v>
+        <v>0.07024511916487254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -3633,19 +3633,19 @@
         <v>23405</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14834</v>
+        <v>15008</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34677</v>
+        <v>35052</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03613137715440042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02289974976162315</v>
+        <v>0.02316950218068591</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05353328501602533</v>
+        <v>0.05411232656366712</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>296979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287599</v>
+        <v>288498</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302188</v>
+        <v>302251</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9671356181897495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9365879045506964</v>
+        <v>0.9395152619832812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9840967904872072</v>
+        <v>0.9843046499186989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>312</v>
@@ -3683,19 +3683,19 @@
         <v>327381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317816</v>
+        <v>316762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334054</v>
+        <v>333270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9609240472165327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9328499808575067</v>
+        <v>0.9297548808351275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9805111379440723</v>
+        <v>0.9782086271439964</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>589</v>
@@ -3704,19 +3704,19 @@
         <v>624360</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>613088</v>
+        <v>612713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>632931</v>
+        <v>632757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9638686228455996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9464667149839746</v>
+        <v>0.9458876734363327</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9771002502383769</v>
+        <v>0.976830497819314</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>3098</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8361</v>
+        <v>8744</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01967350011027552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006415873664932644</v>
+        <v>0.006440105652307898</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05310254627421773</v>
+        <v>0.05553132173097342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3829,19 +3829,19 @@
         <v>3693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10189</v>
+        <v>10094</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02215876067747853</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005761945705018871</v>
+        <v>0.005835311914737314</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06114634874345618</v>
+        <v>0.06057398846107134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3850,19 +3850,19 @@
         <v>6790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2074</v>
+        <v>2690</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14138</v>
+        <v>14682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02095135234066194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00639825536204672</v>
+        <v>0.008300757171676578</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0436221653650237</v>
+        <v>0.04530088446139275</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>154356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149093</v>
+        <v>148710</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156444</v>
+        <v>156440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9803264998897245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9468974537257823</v>
+        <v>0.9444686782690228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9935841263350673</v>
+        <v>0.9935598943476921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -3900,19 +3900,19 @@
         <v>162947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>156451</v>
+        <v>156546</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>165680</v>
+        <v>165668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9778412393225214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9388536512565442</v>
+        <v>0.9394260115389288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9942380542949811</v>
+        <v>0.9941646880852626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>301</v>
@@ -3921,19 +3921,19 @@
         <v>317304</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>309956</v>
+        <v>309412</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>322020</v>
+        <v>321404</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9790486476593381</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9563778346349758</v>
+        <v>0.9546991155386072</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9936017446379533</v>
+        <v>0.9916992428283233</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>3906</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9829</v>
+        <v>9760</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01568669262656643</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003951176788375056</v>
+        <v>0.003983411499195029</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03947003917685068</v>
+        <v>0.03919505245056089</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4046,19 +4046,19 @@
         <v>8845</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4067</v>
+        <v>3935</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16959</v>
+        <v>17291</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0334000394453139</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01535793241610637</v>
+        <v>0.01485852895112394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06403819682794806</v>
+        <v>0.06528917201417636</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -4067,19 +4067,19 @@
         <v>12752</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6868</v>
+        <v>6785</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21701</v>
+        <v>21220</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02481596369108495</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01336531377193878</v>
+        <v>0.01320394050696043</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04223341091770294</v>
+        <v>0.04129606017155949</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>245108</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239185</v>
+        <v>239254</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248030</v>
+        <v>248022</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9843133073734336</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9605299608231493</v>
+        <v>0.960804947549439</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9960488232116249</v>
+        <v>0.996016588500805</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -4117,19 +4117,19 @@
         <v>255985</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247871</v>
+        <v>247539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260763</v>
+        <v>260895</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9665999605546861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9359618031720519</v>
+        <v>0.9347108279858234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9846420675838936</v>
+        <v>0.9851414710488761</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>479</v>
@@ -4138,19 +4138,19 @@
         <v>501092</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>492143</v>
+        <v>492624</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>506976</v>
+        <v>507059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.975184036308915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9577665890822969</v>
+        <v>0.9587039398284396</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9866346862280613</v>
+        <v>0.9867960594930395</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>13496</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7539</v>
+        <v>7661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21947</v>
+        <v>22277</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02350524698795221</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01313062366552827</v>
+        <v>0.01334260228407289</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03822570895647025</v>
+        <v>0.03880014446940253</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4263,19 +4263,19 @@
         <v>13857</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7978</v>
+        <v>7388</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23113</v>
+        <v>23346</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02217104587698424</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01276514109407587</v>
+        <v>0.01182093287669147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03697960395335394</v>
+        <v>0.03735288773221233</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -4284,19 +4284,19 @@
         <v>27353</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18385</v>
+        <v>18828</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40600</v>
+        <v>40598</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02280984923765971</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01533146781023148</v>
+        <v>0.01570088353548578</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03385676545422373</v>
+        <v>0.03385484870612389</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>560657</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>552206</v>
+        <v>551876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>566614</v>
+        <v>566492</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9764947530120478</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9617742910435297</v>
+        <v>0.9611998555305975</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9868693763344718</v>
+        <v>0.9866573977159271</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>558</v>
@@ -4334,19 +4334,19 @@
         <v>611163</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>601907</v>
+        <v>601674</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>617042</v>
+        <v>617632</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9778289541230157</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9630203960466459</v>
+        <v>0.9626471122677872</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.987234858905924</v>
+        <v>0.9881790671233085</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1081</v>
@@ -4355,19 +4355,19 @@
         <v>1171820</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1158573</v>
+        <v>1158575</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1180788</v>
+        <v>1180345</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9771901507623403</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.966143234545776</v>
+        <v>0.966145151293876</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9846685321897685</v>
+        <v>0.9842991164645141</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>5148</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1110</v>
+        <v>1959</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14445</v>
+        <v>15365</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008416831612588126</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001814541337966097</v>
+        <v>0.003203484633124948</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02361808700775353</v>
+        <v>0.02512326065005175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -4480,19 +4480,19 @@
         <v>8371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4069</v>
+        <v>3176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15667</v>
+        <v>14777</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01225654834366423</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005957109269316906</v>
+        <v>0.004649716626699746</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02293875118079415</v>
+        <v>0.02163463486284287</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -4501,19 +4501,19 @@
         <v>13519</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7280</v>
+        <v>7093</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23800</v>
+        <v>23162</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01044258557013693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005622995675490171</v>
+        <v>0.005478731150658067</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01838357810698348</v>
+        <v>0.01789080912955999</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>606455</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>597158</v>
+        <v>596238</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>610493</v>
+        <v>609644</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9915831683874119</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9763819129922463</v>
+        <v>0.9748767393499471</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9981854586620339</v>
+        <v>0.996796515366875</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>620</v>
@@ -4551,19 +4551,19 @@
         <v>674640</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>667344</v>
+        <v>668234</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>678942</v>
+        <v>679835</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9877434516563358</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9770612488192059</v>
+        <v>0.9783653651371572</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9940428907306831</v>
+        <v>0.9953502833733002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1181</v>
@@ -4572,19 +4572,19 @@
         <v>1281094</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1270813</v>
+        <v>1271451</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1287333</v>
+        <v>1287520</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9895574144298631</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9816164218930165</v>
+        <v>0.9821091908704397</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9943770043245098</v>
+        <v>0.994521268849342</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>48784</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>35423</v>
+        <v>35427</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64516</v>
+        <v>64008</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01719747618908742</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01248727803276262</v>
+        <v>0.01248860075836421</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02274304831822391</v>
+        <v>0.0225642179642446</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -4697,19 +4697,19 @@
         <v>86161</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>69001</v>
+        <v>69822</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>108701</v>
+        <v>107476</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02806370296629063</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02247442753982996</v>
+        <v>0.02274187612293413</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03540532009956969</v>
+        <v>0.03500640521527052</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>122</v>
@@ -4718,19 +4718,19 @@
         <v>134945</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>111717</v>
+        <v>111582</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>159120</v>
+        <v>162864</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02284532806419676</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01891296821270371</v>
+        <v>0.01889018062068277</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02693804400646162</v>
+        <v>0.02757179325241267</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>2787935</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2772203</v>
+        <v>2772711</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2801296</v>
+        <v>2801292</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9828025238109126</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9772569516817765</v>
+        <v>0.9774357820357565</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9875127219672375</v>
+        <v>0.987511399241636</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2768</v>
@@ -4768,19 +4768,19 @@
         <v>2984023</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2961483</v>
+        <v>2962708</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3001183</v>
+        <v>3000362</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9719362970337093</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9645946799004294</v>
+        <v>0.9649935947847295</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9775255724601695</v>
+        <v>0.9772581238770659</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5394</v>
@@ -4789,19 +4789,19 @@
         <v>5771958</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5747783</v>
+        <v>5744039</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5795186</v>
+        <v>5795321</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9771546719358032</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9730619559935384</v>
+        <v>0.9724282067475873</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9810870317872962</v>
+        <v>0.9811098193793172</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>11166</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5934</v>
+        <v>5964</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20547</v>
+        <v>18760</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04553609557845219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02419981207256543</v>
+        <v>0.02431983375285803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0837905572984091</v>
+        <v>0.07650287781048841</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -5158,19 +5158,19 @@
         <v>11367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5636</v>
+        <v>5795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19478</v>
+        <v>19853</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04614472644341353</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02287825200666319</v>
+        <v>0.02352533382549631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07906978449731999</v>
+        <v>0.08059567951909871</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -5179,19 +5179,19 @@
         <v>22533</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14654</v>
+        <v>13863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33545</v>
+        <v>33132</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04584110201607184</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02981251685744257</v>
+        <v>0.02820245633532411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06824220587356125</v>
+        <v>0.06740397569614159</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>234052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224671</v>
+        <v>226458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>239284</v>
+        <v>239254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9544639044215478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9162094427015902</v>
+        <v>0.9234971221895114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9758001879274345</v>
+        <v>0.9756801662471419</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>229</v>
@@ -5229,19 +5229,19 @@
         <v>234967</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226856</v>
+        <v>226481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240698</v>
+        <v>240539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9538552735565865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9209302155026801</v>
+        <v>0.9194043204809014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9771217479933368</v>
+        <v>0.9764746661745038</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>439</v>
@@ -5250,19 +5250,19 @@
         <v>469018</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>458006</v>
+        <v>458419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>476897</v>
+        <v>477688</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9541588979839282</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9317577941264387</v>
+        <v>0.9325960243038584</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9701874831425573</v>
+        <v>0.9717975436646759</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>9656</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4692</v>
+        <v>4661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18225</v>
+        <v>18064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0265879467528524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01292008779457358</v>
+        <v>0.0128347362224135</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0501833109291352</v>
+        <v>0.04974095252704043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5375,19 +5375,19 @@
         <v>5356</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1993</v>
+        <v>1967</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11734</v>
+        <v>12016</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01361697293950231</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005066562045213188</v>
+        <v>0.005001839055523605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02983214832374551</v>
+        <v>0.03054929675054171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -5396,19 +5396,19 @@
         <v>15012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8166</v>
+        <v>8537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26149</v>
+        <v>25952</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01984388224757155</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01079439500121553</v>
+        <v>0.01128514550579235</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03456670260892485</v>
+        <v>0.03430532464050742</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>353509</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>344940</v>
+        <v>345101</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358473</v>
+        <v>358504</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9734120532471476</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9498166890708648</v>
+        <v>0.9502590474729596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9870799122054266</v>
+        <v>0.9871652637775865</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>367</v>
@@ -5446,19 +5446,19 @@
         <v>387971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>381593</v>
+        <v>381311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391334</v>
+        <v>391360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9863830270604977</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9701678516762544</v>
+        <v>0.9694507032494584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9949334379547867</v>
+        <v>0.9949981609444764</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>700</v>
@@ -5467,19 +5467,19 @@
         <v>741480</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>730343</v>
+        <v>730540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748326</v>
+        <v>747955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9801561177524285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9654332973910751</v>
+        <v>0.9656946753594926</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9892056049987844</v>
+        <v>0.9887148544942076</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>2940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8680</v>
+        <v>8738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01011896460815063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002694491423408284</v>
+        <v>0.002673356360574383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02988044530806561</v>
+        <v>0.03007729071675734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5592,19 +5592,19 @@
         <v>3980</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10768</v>
+        <v>10818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01293164614705427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003011847522542863</v>
+        <v>0.003002589917998673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0349880045261793</v>
+        <v>0.03514999485830795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -5613,19 +5613,19 @@
         <v>6920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2791</v>
+        <v>2898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14620</v>
+        <v>15462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01156587193617468</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004665074801161359</v>
+        <v>0.004844578027018024</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02443736027090763</v>
+        <v>0.02584401948783385</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>287567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>281827</v>
+        <v>281769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289724</v>
+        <v>289730</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9898810353918494</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9701195546919342</v>
+        <v>0.9699227092832434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9973055085765917</v>
+        <v>0.9973266436394257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>302</v>
@@ -5663,19 +5663,19 @@
         <v>303784</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>296996</v>
+        <v>296946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306837</v>
+        <v>306840</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9870683538529458</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9650119954738205</v>
+        <v>0.9648500051416919</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9969881524774571</v>
+        <v>0.9969974100820014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>602</v>
@@ -5684,19 +5684,19 @@
         <v>591350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>583650</v>
+        <v>582808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>595479</v>
+        <v>595372</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9884341280638254</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9755626397290921</v>
+        <v>0.974155980512166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9953349251988386</v>
+        <v>0.9951554219729819</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>22481</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14360</v>
+        <v>13605</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33847</v>
+        <v>34297</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06811304959599382</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04350806016487472</v>
+        <v>0.04122084394330187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1025518433410615</v>
+        <v>0.1039165266079597</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -5809,19 +5809,19 @@
         <v>18482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11006</v>
+        <v>11832</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28052</v>
+        <v>29586</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05297745690314234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03154921562227329</v>
+        <v>0.03391470968548874</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08040932979108663</v>
+        <v>0.08480822271930125</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -5830,19 +5830,19 @@
         <v>40962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29405</v>
+        <v>30385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55468</v>
+        <v>55527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06033553760074504</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04331212815060172</v>
+        <v>0.04475543434726229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08170247425814371</v>
+        <v>0.08178834485643985</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>307566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>296200</v>
+        <v>295750</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>315687</v>
+        <v>316442</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9318869504040062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8974481566589388</v>
+        <v>0.89608347339204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9564919398351254</v>
+        <v>0.9587791560566979</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>305</v>
@@ -5880,19 +5880,19 @@
         <v>330379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>320809</v>
+        <v>319275</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>337855</v>
+        <v>337029</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9470225430968576</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9195906702089134</v>
+        <v>0.9151917772806988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9684507843777266</v>
+        <v>0.9660852903145111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>598</v>
@@ -5901,19 +5901,19 @@
         <v>637946</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>623440</v>
+        <v>623381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>649503</v>
+        <v>648523</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9396644623992549</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9182975257418564</v>
+        <v>0.9182116551435606</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9566878718493983</v>
+        <v>0.9552445656527379</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>4766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1793</v>
+        <v>1774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10001</v>
+        <v>9742</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03997824689216305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0150358258500033</v>
+        <v>0.01487999050276311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08388261889313746</v>
+        <v>0.08171428177826456</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6026,19 +6026,19 @@
         <v>6688</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2820</v>
+        <v>2884</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13116</v>
+        <v>13516</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04596354395264304</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01938094930410926</v>
+        <v>0.01981928030589187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09014638206549264</v>
+        <v>0.0928932241378178</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -6047,19 +6047,19 @@
         <v>11454</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5818</v>
+        <v>5842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18836</v>
+        <v>19053</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04326796141015785</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02197939715620779</v>
+        <v>0.02206666535393816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07115400437872429</v>
+        <v>0.07197541725094464</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>114456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109221</v>
+        <v>109480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117429</v>
+        <v>117448</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.960021753107837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9161173811068627</v>
+        <v>0.9182857182217355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9849641741499967</v>
+        <v>0.985120009497237</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>145</v>
@@ -6097,19 +6097,19 @@
         <v>138812</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>132384</v>
+        <v>131984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142680</v>
+        <v>142616</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.954036456047357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9098536179345076</v>
+        <v>0.9071067758621824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9806190506958907</v>
+        <v>0.9801807196941081</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>258</v>
@@ -6118,19 +6118,19 @@
         <v>253268</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>245886</v>
+        <v>245669</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>258904</v>
+        <v>258880</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9567320385898421</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9288459956212758</v>
+        <v>0.9280245827490554</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9780206028437923</v>
+        <v>0.9779333346460618</v>
       </c>
     </row>
     <row r="18">
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5939</v>
+        <v>6244</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008383513126330129</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02542134419034687</v>
+        <v>0.02672902867238203</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -6243,19 +6243,19 @@
         <v>5334</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1919</v>
+        <v>1873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12728</v>
+        <v>11317</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02158117020020992</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007765521670754332</v>
+        <v>0.007580569399166992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05150272810198733</v>
+        <v>0.04579315804703232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -6264,19 +6264,19 @@
         <v>7292</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2904</v>
+        <v>3401</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15063</v>
+        <v>14709</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01516794426486737</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006040614162612403</v>
+        <v>0.007074400731615023</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03133147740921107</v>
+        <v>0.03059622954544613</v>
       </c>
     </row>
     <row r="20">
@@ -6293,7 +6293,7 @@
         <v>231656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227676</v>
+        <v>227371</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>233615</v>
@@ -6302,7 +6302,7 @@
         <v>0.9916164868736699</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9745786558096532</v>
+        <v>0.9732709713276178</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -6314,19 +6314,19 @@
         <v>241803</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>234409</v>
+        <v>235820</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245218</v>
+        <v>245264</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9784188297997901</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9484972718980127</v>
+        <v>0.9542068419529673</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9922344783292456</v>
+        <v>0.992419430600833</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>463</v>
@@ -6335,19 +6335,19 @@
         <v>473461</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>465690</v>
+        <v>466044</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>477849</v>
+        <v>477352</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9848320557351327</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9686685225907889</v>
+        <v>0.9694037704545538</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9939593858373875</v>
+        <v>0.992925599268385</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>9894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4774</v>
+        <v>4328</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18045</v>
+        <v>17538</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02236947326224409</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01079424580503079</v>
+        <v>0.009784321660502223</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04079794647741049</v>
+        <v>0.03965173486385514</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -6460,19 +6460,19 @@
         <v>14639</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7968</v>
+        <v>7793</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23868</v>
+        <v>23872</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03005675763311181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01636026304490169</v>
+        <v>0.01600110930556249</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04900573007417797</v>
+        <v>0.04901378743958947</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -6481,19 +6481,19 @@
         <v>24533</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15980</v>
+        <v>15497</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36297</v>
+        <v>36338</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0263981670415622</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01719489118542987</v>
+        <v>0.01667501725769845</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0390561018609258</v>
+        <v>0.03910055423595504</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>432413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>424262</v>
+        <v>424769</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>437533</v>
+        <v>437979</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9776305267377559</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9592020535225895</v>
+        <v>0.9603482651361446</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9892057541949691</v>
+        <v>0.9902156783394978</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>447</v>
@@ -6531,19 +6531,19 @@
         <v>472412</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>463183</v>
+        <v>463179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>479083</v>
+        <v>479258</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9699432423668882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9509942699258218</v>
+        <v>0.9509862125604108</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9836397369550983</v>
+        <v>0.9839988906944382</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>825</v>
@@ -6552,19 +6552,19 @@
         <v>904825</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>893061</v>
+        <v>893020</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>913378</v>
+        <v>913861</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9736018329584378</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9609438981390745</v>
+        <v>0.9608994457640448</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9828051088145702</v>
+        <v>0.9833249827423015</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>13200</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7040</v>
+        <v>7412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22899</v>
+        <v>22251</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02061760111382116</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01099503071105204</v>
+        <v>0.01157651347726937</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03576612598798296</v>
+        <v>0.03475388147060417</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -6677,19 +6677,19 @@
         <v>10555</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5251</v>
+        <v>5034</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19760</v>
+        <v>20717</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01526730135049458</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00759548820787151</v>
+        <v>0.007281408141833943</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02858253644399294</v>
+        <v>0.02996579733745625</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -6698,19 +6698,19 @@
         <v>23755</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14865</v>
+        <v>15948</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34568</v>
+        <v>35840</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01783981285706448</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01116362523335685</v>
+        <v>0.0119763409224279</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02595962501834952</v>
+        <v>0.02691543219704758</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>627052</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>617353</v>
+        <v>618001</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>633212</v>
+        <v>632840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9793823988861788</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9642338740120175</v>
+        <v>0.965246118529396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.989004969288948</v>
+        <v>0.988423486522731</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>626</v>
@@ -6748,19 +6748,19 @@
         <v>680786</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>671581</v>
+        <v>670624</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>686090</v>
+        <v>686307</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9847326986495054</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9714174635560073</v>
+        <v>0.9700342026625431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9924045117921285</v>
+        <v>0.992718591858166</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1229</v>
@@ -6769,19 +6769,19 @@
         <v>1307838</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1297025</v>
+        <v>1295753</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1316728</v>
+        <v>1315645</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9821601871429355</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9740403749816499</v>
+        <v>0.9730845678029524</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.988836374766643</v>
+        <v>0.9880236590775721</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>76062</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>59956</v>
+        <v>61233</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>95879</v>
+        <v>96537</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02854810908582277</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02250323392969885</v>
+        <v>0.02298264144565058</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03598608752734221</v>
+        <v>0.03623298584949804</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>71</v>
@@ -6894,19 +6894,19 @@
         <v>76400</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>61366</v>
+        <v>60636</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>95574</v>
+        <v>95888</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0266450959737319</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02140197880839943</v>
+        <v>0.02114724741871473</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03333207058713388</v>
+        <v>0.03344187071669875</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>143</v>
@@ -6915,19 +6915,19 @@
         <v>152462</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>130553</v>
+        <v>127925</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>181074</v>
+        <v>179628</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02756168734441032</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02360114880291445</v>
+        <v>0.02312604178608835</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03273421229694996</v>
+        <v>0.03247283202153808</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>2588271</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2568454</v>
+        <v>2567796</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2604377</v>
+        <v>2603100</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9714518909141773</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9640139124726579</v>
+        <v>0.963767014150502</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9774967660703012</v>
+        <v>0.9770173585543495</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2656</v>
@@ -6965,19 +6965,19 @@
         <v>2790915</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2771741</v>
+        <v>2771427</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2805949</v>
+        <v>2806679</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9733549040262681</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9666679294128661</v>
+        <v>0.9665581292833012</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9785980211916006</v>
+        <v>0.9788527525812853</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5114</v>
@@ -6986,19 +6986,19 @@
         <v>5379186</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5350574</v>
+        <v>5352020</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5401095</v>
+        <v>5403723</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9724383126555897</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9672657877030501</v>
+        <v>0.9675271679784619</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9763988511970856</v>
+        <v>0.9768739582139117</v>
       </c>
     </row>
     <row r="30">
